--- a/Documentação/Requisitos/ProductBacklog.xlsx
+++ b/Documentação/Requisitos/ProductBacklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOLE201904\Desktop\P.I\Documentação\Requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOLE201901\Desktop\projeto\Prove3D\Documentação\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{580D55C4-F52E-45A5-96D3-9CA72944A4EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C54367A-3502-46AE-B135-D500AB1BA0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="PRODUCT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Projeto Prove3D</t>
   </si>
@@ -69,6 +68,15 @@
   </si>
   <si>
     <t>Monitoramento do hardware e SO</t>
+  </si>
+  <si>
+    <t>Deverá ter um meio de validação com o cliente</t>
+  </si>
+  <si>
+    <t>Deverá conter uma inovação</t>
+  </si>
+  <si>
+    <t>Deverá ser um KPI de acordo com o negócio</t>
   </si>
 </sst>
 </file>
@@ -115,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -151,11 +159,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -166,10 +226,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -489,7 +561,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,11 +572,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -595,10 +667,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -606,30 +678,48 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -735,12 +825,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -876,15 +963,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7691FC9B-55FE-4A26-959E-1BB4CE6B7981}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0431217B-72C8-405F-A208-52F581AE4B53}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -908,10 +999,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0431217B-72C8-405F-A208-52F581AE4B53}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7691FC9B-55FE-4A26-959E-1BB4CE6B7981}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>